--- a/demo/加载数据库/电气/电气资单.xlsx
+++ b/demo/加载数据库/电气/电气资单.xlsx
@@ -4,14 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01站用电负荷表" sheetId="1" r:id="rId1"/>
     <sheet name="02电气一次主要设备及材料表" sheetId="2" r:id="rId2"/>
     <sheet name="03电气二次设备主要材料清单" sheetId="3" r:id="rId3"/>
     <sheet name="04通信部分材料清单" sheetId="4" r:id="rId4"/>
+    <sheet name="消防措施" sheetId="5" r:id="rId5"/>
+    <sheet name="消防灭火系统主要设备材料表" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Toc200007968" localSheetId="5">消防灭火系统主要设备材料表!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="320">
   <si>
     <t>序号</t>
   </si>
@@ -67,20 +72,6 @@
   </si>
   <si>
     <t>15×2</t>
-  </si>
-  <si>
-    <r>
-      <t>小计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>P1</t>
-    </r>
   </si>
   <si>
     <t>综合楼空调</t>
@@ -2639,6 +2630,456 @@
   </si>
   <si>
     <t>管道光缆</t>
+  </si>
+  <si>
+    <r>
+      <t>小计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>P1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>建（构）筑物名称</t>
+  </si>
+  <si>
+    <t>火灾危险性类别</t>
+  </si>
+  <si>
+    <t>耐火等级</t>
+  </si>
+  <si>
+    <t>消防措施</t>
+  </si>
+  <si>
+    <t>风电机组机舱、塔架</t>
+  </si>
+  <si>
+    <t>丁</t>
+  </si>
+  <si>
+    <t>手提式灭火器</t>
+  </si>
+  <si>
+    <t>屋外主变压器场</t>
+  </si>
+  <si>
+    <t>丙</t>
+  </si>
+  <si>
+    <t>灭火器、砂箱</t>
+  </si>
+  <si>
+    <r>
+      <t>35kV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开关柜室</t>
+    </r>
+  </si>
+  <si>
+    <t>灭火器</t>
+  </si>
+  <si>
+    <t>站用变室</t>
+  </si>
+  <si>
+    <t>戊</t>
+  </si>
+  <si>
+    <t>低压配电室</t>
+  </si>
+  <si>
+    <t>蓄电池室</t>
+  </si>
+  <si>
+    <t>继保通信室</t>
+  </si>
+  <si>
+    <t>泵房</t>
+  </si>
+  <si>
+    <r>
+      <t>SVG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>室</t>
+    </r>
+  </si>
+  <si>
+    <t>综合楼</t>
+  </si>
+  <si>
+    <t>消火栓、灭火器</t>
+  </si>
+  <si>
+    <t>规格、型号</t>
+  </si>
+  <si>
+    <t>消防自动给水设备</t>
+  </si>
+  <si>
+    <t>消火栓主泵</t>
+  </si>
+  <si>
+    <r>
+      <t>Q=25L/s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>H=43m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>N=18.5kW</t>
+    </r>
+  </si>
+  <si>
+    <t>一用一备，由厂家配套提供控制柜、防水电缆等。</t>
+  </si>
+  <si>
+    <t>消火栓稳压泵</t>
+  </si>
+  <si>
+    <r>
+      <t>Q=5L/s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>H=50m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>N=5.5kW</t>
+    </r>
+  </si>
+  <si>
+    <t>一用一备，由厂家配套提供液位控制器、控制柜、防水电缆等。</t>
+  </si>
+  <si>
+    <t>气压罐</t>
+  </si>
+  <si>
+    <t>SQL1000×1.0</t>
+  </si>
+  <si>
+    <t>室外消火栓</t>
+  </si>
+  <si>
+    <t>SS100/65-1.0</t>
+  </si>
+  <si>
+    <t>室外消火栓箱</t>
+  </si>
+  <si>
+    <t>1100×650×240</t>
+  </si>
+  <si>
+    <t>（不锈钢）</t>
+  </si>
+  <si>
+    <r>
+      <t>带</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DN65 L=25m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>衬胶水龙带两根、直流喷雾多用型水枪一支、扳手一个</t>
+    </r>
+  </si>
+  <si>
+    <t>天面试验消火栓</t>
+  </si>
+  <si>
+    <t>SN65</t>
+  </si>
+  <si>
+    <t>带压力表</t>
+  </si>
+  <si>
+    <t>室内消火栓</t>
+  </si>
+  <si>
+    <t>室内消火栓箱</t>
+  </si>
+  <si>
+    <t>800×650×200</t>
+  </si>
+  <si>
+    <r>
+      <t>带</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DN65 L=25m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>衬胶水龙带一根、直流水枪一支</t>
+    </r>
+  </si>
+  <si>
+    <t>推车式磷酸铵盐</t>
+  </si>
+  <si>
+    <t>灭火器组</t>
+  </si>
+  <si>
+    <t>MFT/ABC20</t>
+  </si>
+  <si>
+    <t>手提式灭火器箱</t>
+  </si>
+  <si>
+    <r>
+      <t>3kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两只装</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两只装</t>
+    </r>
+  </si>
+  <si>
+    <t>MF/ABC3</t>
+  </si>
+  <si>
+    <t>具</t>
+  </si>
+  <si>
+    <t>MF/ABC5</t>
+  </si>
+  <si>
+    <t>防毒面具</t>
+  </si>
+  <si>
+    <t>镀锌钢管</t>
+  </si>
+  <si>
+    <t>DN150</t>
+  </si>
+  <si>
+    <t>米</t>
+  </si>
+  <si>
+    <t>DN100</t>
+  </si>
+  <si>
+    <t>DN65</t>
+  </si>
+  <si>
+    <r>
+      <t>钢丝网骨架</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给水管</t>
+    </r>
+  </si>
+  <si>
+    <t>软密封闸阀</t>
+  </si>
+  <si>
+    <t>DN50</t>
+  </si>
+  <si>
+    <t>泄压阀</t>
+  </si>
+  <si>
+    <t>蝶阀</t>
+  </si>
+  <si>
+    <t>DN40</t>
+  </si>
+  <si>
+    <t>橡胶软接头</t>
+  </si>
+  <si>
+    <t>多功能水泵控制阀</t>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>型过滤器</t>
+    </r>
+  </si>
+  <si>
+    <t>压力表</t>
+  </si>
+  <si>
+    <t>1.0MPa</t>
+  </si>
+  <si>
+    <t>安全阀</t>
+  </si>
+  <si>
+    <t>真空压力表</t>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2688,7 +3129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2836,11 +3277,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2863,16 +3313,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2884,17 +3371,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3246,8 +3742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3258,20 +3754,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3411,10 +3907,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="10"/>
+      <c r="A10" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="24"/>
       <c r="C10" s="1">
         <v>139</v>
       </c>
@@ -3430,7 +3926,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1">
         <v>100</v>
@@ -3447,7 +3943,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1">
         <v>50</v>
@@ -3464,7 +3960,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
         <v>50</v>
@@ -3481,7 +3977,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1">
         <v>50</v>
@@ -3494,10 +3990,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="10"/>
+      <c r="A15" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="24"/>
       <c r="C15" s="1">
         <v>250</v>
       </c>
@@ -3513,7 +4009,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
         <v>20</v>
@@ -3530,7 +4026,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
@@ -3547,7 +4043,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1">
         <v>15</v>
@@ -3560,10 +4056,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="10"/>
+      <c r="A19" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="24"/>
       <c r="C19" s="1">
         <v>40</v>
       </c>
@@ -3575,22 +4071,22 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3609,8 +4105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3631,24 +4127,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -3660,13 +4156,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E3" s="1">
         <v>40</v>
@@ -3678,13 +4174,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1">
         <v>40</v>
@@ -3696,13 +4192,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E5" s="1">
         <v>15</v>
@@ -3714,7 +4210,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -3726,13 +4222,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1">
         <v>15</v>
@@ -3744,13 +4240,13 @@
         <v>4.2</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E8" s="1">
         <v>320</v>
@@ -3762,13 +4258,13 @@
         <v>4.3</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1">
         <v>40</v>
@@ -3780,13 +4276,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="E10" s="1">
         <v>7</v>
@@ -3795,10 +4291,10 @@
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3810,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -3822,13 +4318,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -3840,11 +4336,11 @@
         <v>1.2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -3856,11 +4352,11 @@
         <v>1.3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -3872,7 +4368,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3884,13 +4380,13 @@
         <v>2.1</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -3902,11 +4398,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -3918,13 +4414,13 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E19" s="1">
         <v>6</v>
@@ -3936,13 +4432,13 @@
         <v>2.4</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E20" s="1">
         <v>0.2</v>
@@ -3954,13 +4450,13 @@
         <v>2.5</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1">
         <v>6</v>
@@ -3972,13 +4468,13 @@
         <v>2.6</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="E22" s="1">
         <v>6</v>
@@ -3990,13 +4486,13 @@
         <v>2.7</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23" s="1">
         <v>12</v>
@@ -4008,13 +4504,13 @@
         <v>2.8</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
@@ -4026,7 +4522,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -4038,19 +4534,19 @@
         <v>3.1</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4058,19 +4554,19 @@
         <v>3.2</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="E27" s="1">
         <v>6</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4078,19 +4574,19 @@
         <v>3.3</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4098,19 +4594,19 @@
         <v>3.4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4118,19 +4614,19 @@
         <v>3.5</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4138,19 +4634,19 @@
         <v>3.6</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4158,13 +4654,13 @@
         <v>3.7</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -4176,19 +4672,19 @@
         <v>3.8</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4196,13 +4692,13 @@
         <v>3.9</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="E34" s="1">
         <v>60</v>
@@ -4214,13 +4710,13 @@
         <v>3.1</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -4232,13 +4728,13 @@
         <v>3.11</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E36" s="1">
         <v>1.5</v>
@@ -4250,13 +4746,13 @@
         <v>3.12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E37" s="1">
         <v>0.2</v>
@@ -4268,19 +4764,19 @@
         <v>3.13</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E38" s="1">
         <v>6</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4288,7 +4784,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -4300,13 +4796,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E40" s="1">
         <v>6</v>
@@ -4318,11 +4814,11 @@
         <v>4.2</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E41" s="1">
         <v>35</v>
@@ -4334,13 +4830,13 @@
         <v>4.3</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E42" s="1">
         <v>10</v>
@@ -4352,13 +4848,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E43" s="1">
         <v>100</v>
@@ -4370,13 +4866,13 @@
         <v>4.5</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E44" s="1">
         <v>200</v>
@@ -4388,13 +4884,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E45" s="1">
         <v>100</v>
@@ -4406,11 +4902,11 @@
         <v>4.7</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -4422,7 +4918,7 @@
         <v>5</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -4434,13 +4930,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E48" s="1">
         <v>6</v>
@@ -4452,13 +4948,13 @@
         <v>5.2</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E49" s="1">
         <v>3</v>
@@ -4470,13 +4966,13 @@
         <v>5.3</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="E50" s="1">
         <v>60</v>
@@ -4488,13 +4984,13 @@
         <v>5.4</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="D51" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E51" s="1">
         <v>0.6</v>
@@ -4506,13 +5002,13 @@
         <v>5.5</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E52" s="1">
         <v>0.5</v>
@@ -4524,13 +5020,13 @@
         <v>5.6</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="D53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E53" s="1">
         <v>0.8</v>
@@ -4542,13 +5038,13 @@
         <v>5.7</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E54" s="1">
         <v>3</v>
@@ -4560,7 +5056,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -4572,13 +5068,13 @@
         <v>6.1</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E56" s="1">
         <v>8</v>
@@ -4616,48 +5112,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4665,13 +5161,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -4683,13 +5179,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -4701,13 +5197,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -4719,13 +5215,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -4737,13 +5233,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -4755,13 +5251,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -4773,13 +5269,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -4791,11 +5287,11 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1">
         <v>6</v>
@@ -4807,11 +5303,11 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -4823,11 +5319,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -4839,11 +5335,11 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -4852,28 +5348,28 @@
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -4885,13 +5381,13 @@
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -4903,13 +5399,13 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -4921,13 +5417,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -4939,13 +5435,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -4957,13 +5453,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -4972,28 +5468,28 @@
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="24"/>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -5005,13 +5501,13 @@
         <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -5023,19 +5519,19 @@
         <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" s="3">
         <v>9</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -5043,13 +5539,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -5058,28 +5554,28 @@
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="24"/>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
@@ -5091,11 +5587,11 @@
         <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
@@ -5107,13 +5603,13 @@
         <v>3</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
@@ -5125,13 +5621,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
@@ -5143,11 +5639,11 @@
         <v>5</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -5156,28 +5652,28 @@
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="10"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="24"/>
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -5189,13 +5685,13 @@
         <v>2</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -5207,13 +5703,13 @@
         <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -5225,13 +5721,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -5243,11 +5739,11 @@
         <v>5</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -5259,11 +5755,11 @@
         <v>6</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -5275,11 +5771,11 @@
         <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -5291,11 +5787,11 @@
         <v>8</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -5304,28 +5800,28 @@
     </row>
     <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="10"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="24"/>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E43" s="1">
         <v>18</v>
@@ -5337,11 +5833,11 @@
         <v>2</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E44" s="1">
         <v>5</v>
@@ -5353,11 +5849,11 @@
         <v>3</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E45" s="1">
         <v>5</v>
@@ -5403,42 +5899,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1">
         <v>40</v>
@@ -5450,13 +5946,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1">
         <v>4</v>
@@ -5468,13 +5964,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1">
         <v>35</v>
@@ -5486,13 +5982,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1">
         <v>20</v>
@@ -5501,28 +5997,28 @@
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -5534,13 +6030,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -5552,13 +6048,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -5570,11 +6066,11 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
@@ -5583,28 +6079,28 @@
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
+        <v>172</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -5616,13 +6112,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -5634,19 +6130,19 @@
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -5654,13 +6150,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -5672,13 +6168,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -5690,11 +6186,11 @@
         <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1">
         <v>1.2</v>
@@ -5710,4 +6206,927 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="14">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="14">
+        <v>2</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="14">
+        <v>2</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>2</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="14">
+        <v>4</v>
+      </c>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29">
+        <v>3</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="33">
+        <v>4</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>4</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>5</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="14">
+        <v>14</v>
+      </c>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="29">
+        <v>6</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="33">
+        <v>15</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="29">
+        <v>7</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="33">
+        <v>2</v>
+      </c>
+      <c r="F13" s="33"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+    </row>
+    <row r="15" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>8</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="14">
+        <v>15</v>
+      </c>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>9</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="14">
+        <v>15</v>
+      </c>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>10</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="E17" s="14">
+        <v>30</v>
+      </c>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>11</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="E18" s="14">
+        <v>30</v>
+      </c>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>12</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="E19" s="14">
+        <v>60</v>
+      </c>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>13</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="E20" s="14">
+        <v>250</v>
+      </c>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>14</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="E21" s="14">
+        <v>150</v>
+      </c>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>14</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="E22" s="14">
+        <v>30</v>
+      </c>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>15</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="E23" s="14">
+        <v>30</v>
+      </c>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>16</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="E24" s="14">
+        <v>294</v>
+      </c>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>17</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="14">
+        <v>9</v>
+      </c>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>18</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="14">
+        <v>6</v>
+      </c>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>19</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="14">
+        <v>1</v>
+      </c>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>20</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="14">
+        <v>4</v>
+      </c>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>21</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="14">
+        <v>1</v>
+      </c>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18">
+        <v>22</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="14">
+        <v>1</v>
+      </c>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>23</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="14">
+        <v>4</v>
+      </c>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
+        <v>24</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="14">
+        <v>4</v>
+      </c>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
+        <v>25</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="14">
+        <v>2</v>
+      </c>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18">
+        <v>26</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="14">
+        <v>2</v>
+      </c>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
+        <v>27</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="14">
+        <v>2</v>
+      </c>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18">
+        <v>28</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="14">
+        <v>2</v>
+      </c>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
+        <v>29</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="14">
+        <v>4</v>
+      </c>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18">
+        <v>30</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="14">
+        <v>1</v>
+      </c>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18">
+        <v>31</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="14">
+        <v>1</v>
+      </c>
+      <c r="F39" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>